--- a/modulos_y_plantilla/CostosUnitarios.xlsx
+++ b/modulos_y_plantilla/CostosUnitarios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\ARESOLVER\_Romina\bisuteria\modulos_y_plantilla\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{427DD57B-E454-4F2C-952E-C16F648DC7D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C5CE2DD7-32BB-470F-9115-7D3835E320BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="720" xr2:uid="{0B71C527-0382-40E8-A093-3C2F1EE8DB8E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="720" xr2:uid="{0B71C527-0382-40E8-A093-3C2F1EE8DB8E}"/>
   </bookViews>
   <sheets>
     <sheet name="Formulario" sheetId="6" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="MATERIALES" sheetId="10" state="hidden" r:id="rId6"/>
     <sheet name="SERVICIOS" sheetId="17" state="hidden" r:id="rId7"/>
     <sheet name="MANO_DE_OBRA" sheetId="15" state="hidden" r:id="rId8"/>
-    <sheet name="CATEGORIAS" sheetId="16" r:id="rId9"/>
+    <sheet name="CATEGORIAS" sheetId="16" state="hidden" r:id="rId9"/>
     <sheet name="Notas" sheetId="9" state="veryHidden" r:id="rId10"/>
   </sheets>
   <definedNames>
@@ -30,7 +30,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId11"/>
+    <pivotCache cacheId="6" r:id="rId11"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="120">
   <si>
     <t>Material</t>
   </si>
@@ -154,12 +154,6 @@
     <t xml:space="preserve">NOMBRE </t>
   </si>
   <si>
-    <t>MATERIALES</t>
-  </si>
-  <si>
-    <t>SERVICIOS</t>
-  </si>
-  <si>
     <t>MATERIAL</t>
   </si>
   <si>
@@ -178,9 +172,6 @@
     <t>CATEGORIA</t>
   </si>
   <si>
-    <t>CATEGORIAS</t>
-  </si>
-  <si>
     <t>Margen (% Ganancia)</t>
   </si>
   <si>
@@ -208,9 +199,6 @@
     <t>UNIDAD</t>
   </si>
   <si>
-    <t>CANTIDAD</t>
-  </si>
-  <si>
     <t>UNIDADES</t>
   </si>
   <si>
@@ -406,13 +394,31 @@
     <t>KILOGRAMO</t>
   </si>
   <si>
-    <t xml:space="preserve">Se requiere un objeto PARAMETROS: </t>
-  </si>
-  <si>
-    <t>CommandButtonCalcularCosto_Click</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Error definido por la aplicación o el objeto PARAMETROS: </t>
+    <t>MEDIDA DE COSTO</t>
+  </si>
+  <si>
+    <t>CANTIDAD DE USO</t>
+  </si>
+  <si>
+    <t>CANTIDAD COMPRADA</t>
+  </si>
+  <si>
+    <t>MEDIDA DE USO</t>
+  </si>
+  <si>
+    <t>CUERO</t>
+  </si>
+  <si>
+    <t>PULSERA DE HOMBRE</t>
+  </si>
+  <si>
+    <t>PULSERA ROMI</t>
+  </si>
+  <si>
+    <t>CRISTALES</t>
+  </si>
+  <si>
+    <t>CONTADOR</t>
   </si>
 </sst>
 </file>
@@ -422,7 +428,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$$-540A]#,##0.00"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -477,6 +483,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Arial Black"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -516,7 +529,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -570,13 +583,103 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -625,13 +728,205 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="56">
+  <dxfs count="65">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial Black"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="[$$-540A]#,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial Black"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial Black"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="[$$-540A]#,##0.00"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial Black"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial Black"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="[$$-540A]#,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial Black"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial Black"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial Black"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial Black"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -778,6 +1073,96 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial Black"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial Black"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial Black"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial Black"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial Black"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -785,6 +1170,20 @@
         <vertAlign val="baseline"/>
         <sz val="12"/>
         <color theme="1"/>
+        <name val="Arial Black"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
         <name val="Arial Black"/>
         <family val="2"/>
         <scheme val="none"/>
@@ -826,7 +1225,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="12"/>
-        <color rgb="FF000000"/>
+        <color theme="1"/>
         <name val="Arial Black"/>
         <family val="2"/>
         <scheme val="none"/>
@@ -1047,25 +1446,6 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Arial Black"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="[$$-540A]#,##0.00"/>
-    </dxf>
-    <dxf>
-      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -1078,24 +1458,6 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="164" formatCode="[$$-540A]#,##0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Arial Black"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -1150,33 +1512,6 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Arial Black"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="[$$-540A]#,##0.00"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -1189,32 +1524,6 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="164" formatCode="[$$-540A]#,##0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Arial Black"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -1266,43 +1575,6 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Arial Black"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="[$$-540A]#,##0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Arial Black"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -1387,17 +1659,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>TablasDinamicas!$K$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Valor</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:dPt>
             <c:idx val="0"/>
             <c:bubble3D val="0"/>
@@ -1473,7 +1734,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="bg1"/>
                     </a:solidFill>
@@ -1512,24 +1773,24 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>TablasDinamicas!$J$4:$J$6</c:f>
+              <c:f>Formulario!$J$31:$J$33</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Materiales</c:v>
+                  <c:v>MATERIAL</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Servicios</c:v>
+                  <c:v>SERVICIO</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Mano de Obra</c:v>
+                  <c:v>MANO DE OBRA</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>TablasDinamicas!$K$4:$K$6</c:f>
+              <c:f>Formulario!$K$31:$K$33</c:f>
               <c:numCache>
                 <c:formatCode>[$$-540A]#,##0.00</c:formatCode>
                 <c:ptCount val="3"/>
@@ -3170,16 +3431,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>279399</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>84665</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>330834</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>23229</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>287865</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>129273</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>78900</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3259,15 +3520,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>16086</xdr:colOff>
+      <xdr:colOff>19896</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>40640</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>143087</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>35718</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3282,8 +3543,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="564726" y="4823460"/>
-          <a:ext cx="12856634" cy="866987"/>
+          <a:off x="234209" y="4462463"/>
+          <a:ext cx="13153337" cy="561974"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -3524,8 +3785,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3248025" y="276226"/>
-          <a:ext cx="381000" cy="295275"/>
+          <a:off x="3261360" y="274321"/>
+          <a:ext cx="381000" cy="304800"/>
           <a:chOff x="3253740" y="274321"/>
           <a:chExt cx="381000" cy="304800"/>
         </a:xfrm>
@@ -3655,8 +3916,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9048750" y="276226"/>
-          <a:ext cx="381000" cy="295275"/>
+          <a:off x="8778240" y="274321"/>
+          <a:ext cx="381000" cy="304800"/>
           <a:chOff x="13098780" y="594361"/>
           <a:chExt cx="381000" cy="304800"/>
         </a:xfrm>
@@ -3788,8 +4049,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6257925" y="276225"/>
-          <a:ext cx="381000" cy="295275"/>
+          <a:off x="6271260" y="274320"/>
+          <a:ext cx="381000" cy="304800"/>
           <a:chOff x="5913120" y="274320"/>
           <a:chExt cx="381000" cy="304800"/>
         </a:xfrm>
@@ -3985,7 +4246,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6572250" cy="4893945"/>
+          <a:ext cx="6591300" cy="4943475"/>
           <a:chOff x="2674620" y="45720"/>
           <a:chExt cx="6591300" cy="4943475"/>
         </a:xfrm>
@@ -4781,17 +5042,19 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Maryvi Camacho" refreshedDate="45760.860269560188" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="26" xr:uid="{FA38EBDB-6F6B-40E0-A39D-1DA259BE4882}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Maryvi Camacho" refreshedDate="45764.60331111111" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="45" xr:uid="{FA38EBDB-6F6B-40E0-A39D-1DA259BE4882}">
   <cacheSource type="worksheet">
     <worksheetSource name="FactTable"/>
   </cacheSource>
   <cacheFields count="22">
     <cacheField name="nombreProducto" numFmtId="0">
-      <sharedItems count="31">
+      <sharedItems count="33">
+        <s v="COLLAR DE PERLAS"/>
+        <s v="PULSERA OVALADA"/>
         <s v="PULSERA MINIMALISTA"/>
-        <s v="COLLAR DE PERLAS"/>
+        <s v="PULSERA DE HOMBRE"/>
         <s v="ZARCILLOS SOLITARIO"/>
-        <s v="PULSERA OVALADA"/>
+        <s v="PULSERA ROMI"/>
         <s v="PULSERA DE PERLAS BLANCAS" u="1"/>
         <s v="PRODUCTO DESDE CERO" u="1"/>
         <s v="PULSERA AMARILLA" u="1"/>
@@ -4823,8 +5086,8 @@
     </cacheField>
     <cacheField name="categoriaProductos" numFmtId="0">
       <sharedItems count="4">
+        <s v="COLLARES"/>
         <s v="PULSERAS"/>
-        <s v="COLLARES"/>
         <s v="ZARCILLOS"/>
         <s v="NUEVA CATEGORIA2" u="1"/>
       </sharedItems>
@@ -4871,7 +5134,7 @@
       <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
     </cacheField>
     <cacheField name="costoServicioProducto" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="0.5"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0" maxValue="5.25"/>
     </cacheField>
     <cacheField name="descripcionManoObra" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -4889,7 +5152,7 @@
       <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
     </cacheField>
     <cacheField name="costoManoObraProducto" numFmtId="2">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="0.89"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="75"/>
     </cacheField>
     <cacheField name="% Margen" numFmtId="0">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.3" maxValue="0.6"/>
@@ -4904,7 +5167,31 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="26">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="45">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="BROCHE"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="1.25"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <m/>
+  </r>
   <r>
     <x v="0"/>
     <x v="0"/>
@@ -4914,55 +5201,7 @@
     <m/>
     <m/>
     <m/>
-    <n v="0.3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <s v="TARJETA"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="0.23"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <s v="BROCHE"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="0.3"/>
+    <n v="2"/>
     <m/>
     <m/>
     <m/>
@@ -4992,6 +5231,30 @@
     <m/>
     <m/>
     <m/>
+    <n v="0.25"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <s v="GASOLINA"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
     <n v="0.2"/>
     <m/>
     <m/>
@@ -5022,7 +5285,7 @@
     <m/>
     <m/>
     <m/>
-    <n v="0.8"/>
+    <n v="0.37"/>
     <m/>
   </r>
   <r>
@@ -5047,18 +5310,18 @@
     <m/>
     <m/>
     <n v="0"/>
-    <n v="0.51"/>
+    <n v="0.6"/>
   </r>
   <r>
     <x v="1"/>
     <x v="1"/>
     <x v="0"/>
-    <s v="BROCHE"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="1.25"/>
+    <s v="PIEDRAS CUARZO"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0.2"/>
     <m/>
     <m/>
     <m/>
@@ -5082,7 +5345,7 @@
     <m/>
     <m/>
     <m/>
-    <n v="2"/>
+    <n v="0.113"/>
     <m/>
     <m/>
     <m/>
@@ -5112,7 +5375,7 @@
     <m/>
     <m/>
     <m/>
-    <n v="0.25"/>
+    <n v="0.5"/>
     <m/>
     <m/>
     <m/>
@@ -5136,7 +5399,7 @@
     <m/>
     <m/>
     <m/>
-    <n v="0.2"/>
+    <n v="8.8999999999999996E-2"/>
     <m/>
     <m/>
     <m/>
@@ -5166,7 +5429,7 @@
     <m/>
     <m/>
     <m/>
-    <n v="0.37"/>
+    <n v="0.89"/>
     <m/>
   </r>
   <r>
@@ -5191,18 +5454,18 @@
     <m/>
     <m/>
     <n v="0"/>
-    <n v="0.6"/>
+    <n v="0.52"/>
   </r>
   <r>
     <x v="2"/>
-    <x v="2"/>
+    <x v="1"/>
     <x v="0"/>
     <s v="ALAMBRE"/>
     <m/>
     <m/>
     <m/>
     <m/>
-    <n v="0.04"/>
+    <n v="0.113"/>
     <m/>
     <m/>
     <m/>
@@ -5219,14 +5482,14 @@
   </r>
   <r>
     <x v="2"/>
-    <x v="2"/>
+    <x v="1"/>
     <x v="0"/>
-    <s v="PERLAS"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="0.2"/>
+    <s v="TARJETA"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0.23"/>
     <m/>
     <m/>
     <m/>
@@ -5243,14 +5506,14 @@
   </r>
   <r>
     <x v="2"/>
-    <x v="2"/>
+    <x v="1"/>
     <x v="0"/>
-    <s v="BOLSA"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="0.01"/>
+    <s v="BROCHE"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0.3"/>
     <m/>
     <m/>
     <m/>
@@ -5267,7 +5530,7 @@
   </r>
   <r>
     <x v="2"/>
-    <x v="2"/>
+    <x v="1"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -5280,7 +5543,7 @@
     <m/>
     <m/>
     <m/>
-    <n v="0.03"/>
+    <n v="5.25"/>
     <m/>
     <m/>
     <m/>
@@ -5291,7 +5554,7 @@
   </r>
   <r>
     <x v="2"/>
-    <x v="2"/>
+    <x v="1"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -5304,7 +5567,7 @@
     <m/>
     <m/>
     <m/>
-    <n v="0.08"/>
+    <n v="2E-3"/>
     <m/>
     <m/>
     <m/>
@@ -5315,7 +5578,7 @@
   </r>
   <r>
     <x v="2"/>
-    <x v="2"/>
+    <x v="1"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -5328,7 +5591,7 @@
     <m/>
     <m/>
     <m/>
-    <n v="0.02"/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -5339,7 +5602,7 @@
   </r>
   <r>
     <x v="2"/>
-    <x v="2"/>
+    <x v="1"/>
     <x v="2"/>
     <m/>
     <m/>
@@ -5358,12 +5621,180 @@
     <m/>
     <m/>
     <m/>
-    <n v="0.37"/>
+    <n v="75"/>
     <m/>
   </r>
   <r>
     <x v="2"/>
+    <x v="1"/>
     <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <s v="PETRA"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="5.7140000000000004"/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <n v="0.51"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="ALAMBRE"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0.13200000000000001"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="BOLSA"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="6.7000000000000004E-2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="TARJETA"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0.08"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <s v="TELÉFONO"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="2.1999999999999999E-2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <s v="ROMINA"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="2.5"/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
     <x v="3"/>
     <m/>
     <m/>
@@ -5386,15 +5817,15 @@
     <n v="0.3"/>
   </r>
   <r>
-    <x v="3"/>
+    <x v="4"/>
+    <x v="2"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="PIEDRAS CUARZO"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="0.2"/>
+    <s v="ALAMBRE"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0.04"/>
     <m/>
     <m/>
     <m/>
@@ -5410,15 +5841,183 @@
     <m/>
   </r>
   <r>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="PERLAS"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0.2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <m/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="BOLSA"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0.01"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <m/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <s v="INTERNET"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0.03"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <m/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <s v="TELÉFONO"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0.08"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <m/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <s v="GASOLINA"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="8.8999999999999996E-2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <m/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <s v="ROMINA"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0.37"/>
+    <m/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="2"/>
     <x v="3"/>
-    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <n v="0.3"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="1"/>
     <x v="0"/>
     <s v="ALAMBRE"/>
     <m/>
     <m/>
     <m/>
     <m/>
-    <n v="0.113"/>
+    <n v="0.111"/>
     <m/>
     <m/>
     <m/>
@@ -5434,8 +6033,128 @@
     <m/>
   </r>
   <r>
-    <x v="3"/>
+    <x v="5"/>
+    <x v="1"/>
     <x v="0"/>
+    <s v="CRISTALES"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0.157"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="BOLSA"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="1.4999999999999999E-2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="TARJETA"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0.06"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <s v="CONTADOR"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0.501"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <s v="GASOLINA"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="8.8999999999999996E-2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="1"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -5448,7 +6167,7 @@
     <m/>
     <m/>
     <m/>
-    <n v="0.5"/>
+    <n v="1.7000000000000001E-2"/>
     <m/>
     <m/>
     <m/>
@@ -5458,21 +6177,21 @@
     <m/>
   </r>
   <r>
-    <x v="3"/>
-    <x v="0"/>
+    <x v="5"/>
     <x v="1"/>
+    <x v="1"/>
     <m/>
     <m/>
     <m/>
     <m/>
     <m/>
     <n v="0"/>
-    <s v="GASOLINA"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="8.8999999999999996E-2"/>
+    <s v="TELÉFONO"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="5.0000000000000001E-3"/>
     <m/>
     <m/>
     <m/>
@@ -5482,8 +6201,8 @@
     <m/>
   </r>
   <r>
-    <x v="3"/>
-    <x v="0"/>
+    <x v="5"/>
+    <x v="1"/>
     <x v="2"/>
     <m/>
     <m/>
@@ -5502,13 +6221,13 @@
     <m/>
     <m/>
     <m/>
-    <n v="0.89"/>
+    <n v="0.875"/>
     <m/>
   </r>
   <r>
+    <x v="5"/>
+    <x v="1"/>
     <x v="3"/>
-    <x v="0"/>
-    <x v="3"/>
     <m/>
     <m/>
     <m/>
@@ -5527,56 +6246,58 @@
     <m/>
     <m/>
     <n v="0"/>
-    <n v="0.52"/>
+    <n v="0.5"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6B1C9B4E-4489-4422-BB11-BE6F99F2E421}" name="TablaDinámica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Producto">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6B1C9B4E-4489-4422-BB11-BE6F99F2E421}" name="TablaDinámica1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Producto">
   <location ref="A3:E8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="22">
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="32">
-        <item h="1" m="1" x="4"/>
-        <item h="1" m="1" x="12"/>
-        <item h="1" m="1" x="13"/>
+      <items count="34">
+        <item h="1" m="1" x="6"/>
+        <item h="1" m="1" x="14"/>
+        <item h="1" m="1" x="15"/>
+        <item h="1" m="1" x="26"/>
+        <item h="1" x="4"/>
+        <item h="1" m="1" x="27"/>
+        <item h="1" m="1" x="31"/>
+        <item h="1" m="1" x="32"/>
+        <item h="1" m="1" x="16"/>
+        <item h="1" m="1" x="8"/>
+        <item h="1" m="1" x="17"/>
+        <item h="1" m="1" x="28"/>
+        <item h="1" m="1" x="18"/>
+        <item h="1" m="1" x="19"/>
+        <item h="1" m="1" x="20"/>
+        <item h="1" x="2"/>
+        <item h="1" m="1" x="21"/>
+        <item h="1" m="1" x="22"/>
+        <item h="1" m="1" x="23"/>
         <item h="1" m="1" x="24"/>
-        <item h="1" x="2"/>
-        <item h="1" m="1" x="25"/>
         <item h="1" m="1" x="29"/>
         <item h="1" m="1" x="30"/>
-        <item h="1" m="1" x="14"/>
-        <item h="1" m="1" x="6"/>
-        <item h="1" m="1" x="15"/>
-        <item h="1" m="1" x="26"/>
-        <item h="1" m="1" x="16"/>
-        <item h="1" m="1" x="17"/>
-        <item h="1" m="1" x="18"/>
+        <item h="1" m="1" x="12"/>
+        <item h="1" m="1" x="25"/>
+        <item h="1" m="1" x="13"/>
+        <item h="1" m="1" x="11"/>
         <item h="1" x="0"/>
-        <item h="1" m="1" x="19"/>
-        <item h="1" m="1" x="20"/>
-        <item h="1" m="1" x="21"/>
-        <item h="1" m="1" x="22"/>
-        <item h="1" m="1" x="27"/>
-        <item h="1" m="1" x="28"/>
+        <item h="1" m="1" x="9"/>
         <item h="1" m="1" x="10"/>
-        <item h="1" m="1" x="23"/>
-        <item h="1" m="1" x="11"/>
-        <item h="1" m="1" x="9"/>
-        <item h="1" x="1"/>
+        <item x="1"/>
         <item h="1" m="1" x="7"/>
-        <item h="1" m="1" x="8"/>
-        <item x="3"/>
-        <item h="1" m="1" x="5"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0">
       <items count="5">
-        <item h="1" x="1"/>
+        <item h="1" x="0"/>
         <item h="1" m="1" x="3"/>
-        <item x="0"/>
+        <item x="1"/>
         <item h="1" x="2"/>
         <item t="default"/>
       </items>
@@ -5657,7 +6378,7 @@
     <dataField name="% Ganancia" fld="21" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="33">
+    <format dxfId="48">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="4">
@@ -5669,7 +6390,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="32">
+    <format dxfId="47">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="4">
@@ -5681,7 +6402,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="31">
+    <format dxfId="46">
       <pivotArea field="2" grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="3" selected="0">
@@ -5692,7 +6413,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="30">
+    <format dxfId="45">
       <pivotArea field="2" grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -5721,38 +6442,40 @@
   </pivotTables>
   <data>
     <tabular pivotCacheId="1201106027">
-      <items count="31">
-        <i x="0"/>
-        <i x="3" s="1"/>
+      <items count="33">
+        <i x="3"/>
+        <i x="2"/>
+        <i x="1" s="1"/>
+        <i x="5"/>
+        <i x="15" nd="1"/>
+        <i x="0" nd="1"/>
+        <i x="12" nd="1"/>
         <i x="13" nd="1"/>
-        <i x="1" nd="1"/>
+        <i x="31" nd="1"/>
         <i x="10" nd="1"/>
         <i x="11" nd="1"/>
-        <i x="29" nd="1"/>
-        <i x="8" nd="1"/>
+        <i x="25" nd="1"/>
         <i x="9" nd="1"/>
-        <i x="23" nd="1"/>
+        <i x="30" nd="1"/>
+        <i x="28" nd="1"/>
         <i x="7" nd="1"/>
-        <i x="28" nd="1"/>
-        <i x="26" nd="1"/>
-        <i x="5" nd="1"/>
-        <i x="19" nd="1"/>
-        <i x="20" nd="1"/>
         <i x="21" nd="1"/>
         <i x="22" nd="1"/>
+        <i x="23" nd="1"/>
+        <i x="24" nd="1"/>
+        <i x="8" nd="1"/>
+        <i x="20" nd="1"/>
+        <i x="18" nd="1"/>
+        <i x="19" nd="1"/>
+        <i x="17" nd="1"/>
         <i x="6" nd="1"/>
-        <i x="18" nd="1"/>
+        <i x="14" nd="1"/>
+        <i x="29" nd="1"/>
         <i x="16" nd="1"/>
-        <i x="17" nd="1"/>
-        <i x="15" nd="1"/>
+        <i x="32" nd="1"/>
+        <i x="26" nd="1"/>
         <i x="4" nd="1"/>
-        <i x="12" nd="1"/>
         <i x="27" nd="1"/>
-        <i x="14" nd="1"/>
-        <i x="30" nd="1"/>
-        <i x="24" nd="1"/>
-        <i x="2" nd="1"/>
-        <i x="25" nd="1"/>
       </items>
     </tabular>
   </data>
@@ -5772,8 +6495,8 @@
   <data>
     <tabular pivotCacheId="1201106027">
       <items count="4">
-        <i x="0" s="1"/>
-        <i x="1" nd="1"/>
+        <i x="1" s="1"/>
+        <i x="0" nd="1"/>
         <i x="3" nd="1"/>
         <i x="2" nd="1"/>
       </items>
@@ -5795,45 +6518,47 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{18C3F688-8A58-4DEF-8182-B54604A043BC}" name="TablaF_Materiales" displayName="TablaF_Materiales" ref="D3:E16" totalsRowCount="1" headerRowDxfId="55" totalsRowDxfId="53" tableBorderDxfId="54">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{18C3F688-8A58-4DEF-8182-B54604A043BC}" name="TablaF_Materiales" displayName="TablaF_Materiales" ref="D3:E16" totalsRowCount="1" headerRowDxfId="64" totalsRowDxfId="62" tableBorderDxfId="63">
   <autoFilter ref="D3:E15" xr:uid="{18C3F688-8A58-4DEF-8182-B54604A043BC}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{5D77C39B-132C-4160-8AC2-AED6BF6BDBE3}" name="MATERIAL" totalsRowLabel="Total" totalsRowDxfId="52"/>
-    <tableColumn id="2" xr3:uid="{67F9B078-7971-4210-877B-9C9A2263ED2A}" name="COSTO($)" totalsRowFunction="sum" totalsRowDxfId="51"/>
+    <tableColumn id="1" xr3:uid="{5D77C39B-132C-4160-8AC2-AED6BF6BDBE3}" name="MATERIAL" totalsRowLabel="Total" totalsRowDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{67F9B078-7971-4210-877B-9C9A2263ED2A}" name="COSTO($)" totalsRowFunction="sum" totalsRowDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{A590C0B8-09EB-4AD3-83AB-914C9FC81D47}" name="MaestroManoDeObra" displayName="MaestroManoDeObra" ref="A1:D3" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="A1:D3" xr:uid="{A590C0B8-09EB-4AD3-83AB-914C9FC81D47}"/>
-  <tableColumns count="4">
-    <tableColumn id="2" xr3:uid="{CF8293A7-FCFB-462B-87C6-7ADECB3E3EC8}" name="MANO DE OBRA" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{0995AFE9-7562-4B65-BFE2-752911DBADA5}" name="UNIDAD" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{FDF6BEDD-F402-4A7C-8BF8-8F439C83287F}" name="CANTIDAD" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{26F46A0E-7E73-4C52-BE29-04F5CD56B892}" name="PRECIO" dataDxfId="3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{A590C0B8-09EB-4AD3-83AB-914C9FC81D47}" name="MaestroManoDeObra" displayName="MaestroManoDeObra" ref="A1:G3" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+  <tableColumns count="7">
+    <tableColumn id="2" xr3:uid="{CF8293A7-FCFB-462B-87C6-7ADECB3E3EC8}" name="MANO DE OBRA" dataDxfId="15"/>
+    <tableColumn id="6" xr3:uid="{0995AFE9-7562-4B65-BFE2-752911DBADA5}" name="TIPO DE MEDIDA" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{FDF6BEDD-F402-4A7C-8BF8-8F439C83287F}" name="MEDIDA DE COSTO" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{26F46A0E-7E73-4C52-BE29-04F5CD56B892}" name="CANTIDAD COMPRADA" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{61170B82-50AE-4ED2-BB24-A1340F4D822E}" name="MEDIDA DE USO" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{E514F6DC-DAE1-47A7-9548-65CD146A0B26}" name="CANTIDAD DE USO" dataDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{F6BBE82E-1C1A-4488-A92D-8E6BE43B76F9}" name="PRECIO" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C9559379-AFD8-4292-B689-A335C36E3551}" name="MaestroCategorias" displayName="MaestroCategorias" ref="A1:A4" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C9559379-AFD8-4292-B689-A335C36E3551}" name="MaestroCategorias" displayName="MaestroCategorias" ref="A1:A4" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
   <autoFilter ref="A1:A4" xr:uid="{C9559379-AFD8-4292-B689-A335C36E3551}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{02001C19-3BE2-4C7C-98A6-3936C05D736A}" name="CATEGORIAS" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{02001C19-3BE2-4C7C-98A6-3936C05D736A}" name="CATEGORIA" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{3E3F5A1C-88C4-4F9C-9884-F9C70CB49814}" name="Errores" displayName="Errores" ref="A1:C10" totalsRowShown="0">
-  <autoFilter ref="A1:C10" xr:uid="{3E3F5A1C-88C4-4F9C-9884-F9C70CB49814}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{3E3F5A1C-88C4-4F9C-9884-F9C70CB49814}" name="Errores" displayName="Errores" ref="A1:C4" totalsRowShown="0">
+  <autoFilter ref="A1:C4" xr:uid="{3E3F5A1C-88C4-4F9C-9884-F9C70CB49814}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{E288FD7C-2D92-4A56-BB85-44C9B9451D3E}" name="Numero"/>
     <tableColumn id="2" xr3:uid="{168903CB-8AEA-4798-AD73-5200EC5A96AF}" name="Descripcion"/>
@@ -5844,35 +6569,35 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{97601C7A-8305-4EC5-8349-2F695B09C23E}" name="TablaF_Servicios" displayName="TablaF_Servicios" ref="G3:H16" totalsRowCount="1" headerRowDxfId="50" dataDxfId="49" totalsRowDxfId="48">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{97601C7A-8305-4EC5-8349-2F695B09C23E}" name="TablaF_Servicios" displayName="TablaF_Servicios" ref="G3:H16" totalsRowCount="1" headerRowDxfId="61" dataDxfId="60" totalsRowDxfId="59">
   <autoFilter ref="G3:H15" xr:uid="{97601C7A-8305-4EC5-8349-2F695B09C23E}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{B0F4F6B6-2DEC-44E7-8E20-4D4DD4931B3F}" name="SERVICIO" totalsRowLabel="Total" dataDxfId="47" totalsRowDxfId="46"/>
-    <tableColumn id="2" xr3:uid="{FED94907-3424-45B2-861F-853E156B063B}" name="COSTO($)" totalsRowFunction="sum" dataDxfId="45" totalsRowDxfId="44"/>
+    <tableColumn id="1" xr3:uid="{B0F4F6B6-2DEC-44E7-8E20-4D4DD4931B3F}" name="SERVICIO" totalsRowLabel="Total" dataDxfId="58" totalsRowDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{FED94907-3424-45B2-861F-853E156B063B}" name="COSTO($)" totalsRowFunction="sum" dataDxfId="57" totalsRowDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00FF6780-146A-4505-9E2E-FCCB68DDA19D}" name="TablaF_ManoDeObra" displayName="TablaF_ManoDeObra" ref="J3:K16" totalsRowCount="1" headerRowDxfId="43" dataDxfId="42" totalsRowDxfId="41">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00FF6780-146A-4505-9E2E-FCCB68DDA19D}" name="TablaF_ManoDeObra" displayName="TablaF_ManoDeObra" ref="J3:K16" totalsRowCount="1" headerRowDxfId="56" dataDxfId="55" totalsRowDxfId="54">
   <autoFilter ref="J3:K15" xr:uid="{00FF6780-146A-4505-9E2E-FCCB68DDA19D}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{4BE6947A-A5F2-4D93-8843-0E514FF1EFFE}" name="MANO DE OBRA" totalsRowLabel="Total" dataDxfId="40" totalsRowDxfId="39"/>
-    <tableColumn id="2" xr3:uid="{D1EF3DFB-AA71-407B-AEF5-6C727B011AC1}" name="COSTO($)" totalsRowFunction="sum" dataDxfId="38" totalsRowDxfId="37"/>
+    <tableColumn id="1" xr3:uid="{4BE6947A-A5F2-4D93-8843-0E514FF1EFFE}" name="MANO DE OBRA" totalsRowLabel="Total" dataDxfId="53" totalsRowDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{D1EF3DFB-AA71-407B-AEF5-6C727B011AC1}" name="COSTO($)" totalsRowFunction="sum" dataDxfId="52" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3F94DF17-1041-4CA6-8D43-40AADBB5419D}" name="FactTable" displayName="FactTable" ref="A1:V27" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3F94DF17-1041-4CA6-8D43-40AADBB5419D}" name="FactTable" displayName="FactTable" ref="A1:V46" totalsRowShown="0">
   <tableColumns count="22">
     <tableColumn id="2" xr3:uid="{A6182862-EC1B-45D3-9D31-078C867C7965}" name="nombreProducto"/>
     <tableColumn id="25" xr3:uid="{1EC34B0C-AE65-4EA5-9B56-398CB1480078}" name="categoriaProductos"/>
@@ -5882,7 +6607,7 @@
     <tableColumn id="5" xr3:uid="{12C22DBC-884B-47DF-B5B8-CEC302FBEC6E}" name="unidadUsadaMaterial"/>
     <tableColumn id="6" xr3:uid="{002D3424-4730-4C86-AF47-1321E50B729B}" name="costoMaterial$"/>
     <tableColumn id="7" xr3:uid="{E3977A5C-FCCE-4AA7-B109-8629C54AA318}" name="cantidadUsadaMaterial"/>
-    <tableColumn id="9" xr3:uid="{D652C943-3AF8-4143-8E88-8BE8C3C821E7}" name="costoMaterialProducto" dataDxfId="36">
+    <tableColumn id="9" xr3:uid="{D652C943-3AF8-4143-8E88-8BE8C3C821E7}" name="costoMaterialProducto" dataDxfId="51">
       <calculatedColumnFormula>IFERROR(FactTable[[#This Row],[cantidadUsadaMaterial]]*FactTable[[#This Row],[costoMaterial$]]/FactTable[[#This Row],[unidadUsadaMaterial]],0)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="10" xr3:uid="{72F7241A-CA94-4D51-BD7E-223020888366}" name="descripcionServicio"/>
@@ -5890,7 +6615,7 @@
     <tableColumn id="13" xr3:uid="{F337E8A7-1EEC-4335-B0C3-F5D12AA7B401}" name="unidadUsadaServicio"/>
     <tableColumn id="11" xr3:uid="{A4674FBF-C8EA-4B84-9461-40C8FBB54546}" name="costoServicio$"/>
     <tableColumn id="23" xr3:uid="{8230423E-D643-4319-9152-3CC5BC23F43E}" name="cantidadUsadaServicio"/>
-    <tableColumn id="14" xr3:uid="{6FA3A063-6C5A-4515-9817-2F09BE6BFDED}" name="costoServicioProducto" dataDxfId="35">
+    <tableColumn id="14" xr3:uid="{6FA3A063-6C5A-4515-9817-2F09BE6BFDED}" name="costoServicioProducto" dataDxfId="50">
       <calculatedColumnFormula>IFERROR(FactTable[[#This Row],[cantidadUsadaServicio]]*FactTable[[#This Row],[costoServicio$]]/FactTable[[#This Row],[unidadUsadaServicio]],0)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" xr3:uid="{0A907506-BA5F-4CA6-9088-38E6D95E30D7}" name="descripcionManoObra"/>
@@ -5898,7 +6623,7 @@
     <tableColumn id="18" xr3:uid="{99E8A21A-E5A6-4C47-84B7-7E2F653DDB3E}" name="unidadUsadaManoObra"/>
     <tableColumn id="19" xr3:uid="{5DBC3E7C-4110-45B6-9A2D-3FF3DCACD809}" name="costoManoObra$"/>
     <tableColumn id="21" xr3:uid="{B23E569C-366B-4BE6-B473-C41DD98239EF}" name="cantidadUsadaManoObra"/>
-    <tableColumn id="20" xr3:uid="{1F1F38A5-3119-4FD0-A036-6D3FBFE9F35A}" name="costoManoObraProducto" dataDxfId="34">
+    <tableColumn id="20" xr3:uid="{1F1F38A5-3119-4FD0-A036-6D3FBFE9F35A}" name="costoManoObraProducto" dataDxfId="49">
       <calculatedColumnFormula>IFERROR(FactTable[[#This Row],[cantidadUsadaManoObra]]*FactTable[[#This Row],[costoManoObra$]]/FactTable[[#This Row],[unidadUsadaManoObra]],0)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="24" xr3:uid="{2FD160AA-2505-462B-B458-1E55FCFC64F8}" name="% Margen"/>
@@ -5908,11 +6633,11 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{152580DC-9A0F-4A38-8A68-EBB569C4A11A}" name="Tabla4" displayName="Tabla4" ref="G3:H6" totalsRowShown="0" headerRowDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{152580DC-9A0F-4A38-8A68-EBB569C4A11A}" name="Tabla4" displayName="Tabla4" ref="G3:H6" totalsRowShown="0" headerRowDxfId="44">
   <autoFilter ref="G3:H6" xr:uid="{152580DC-9A0F-4A38-8A68-EBB569C4A11A}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{82B54708-5DF1-4308-9291-39BE55175FBC}" name="Indicador"/>
-    <tableColumn id="2" xr3:uid="{75DAF0CF-F51A-4455-AABB-42EFCA34DD99}" name="Valor" dataDxfId="28"/>
+    <tableColumn id="2" xr3:uid="{75DAF0CF-F51A-4455-AABB-42EFCA34DD99}" name="Valor" dataDxfId="43"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5923,49 +6648,53 @@
   <autoFilter ref="J3:K6" xr:uid="{F599026A-6570-47F9-AE35-F0FDF85313A6}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{F1C8DE24-625A-4EBD-8378-9C67562F939B}" name="Indicador"/>
-    <tableColumn id="2" xr3:uid="{CFD8E4F8-F806-42C6-A73E-6EFA52CD3561}" name="Valor" dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{CFD8E4F8-F806-42C6-A73E-6EFA52CD3561}" name="Valor" dataDxfId="42"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{3136B4E8-E4A7-4799-83D8-FD4052B65870}" name="MaestroUnidades" displayName="MaestroUnidades" ref="A1:D22" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{3136B4E8-E4A7-4799-83D8-FD4052B65870}" name="MaestroUnidades" displayName="MaestroUnidades" ref="A1:D22" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40">
   <autoFilter ref="A1:D22" xr:uid="{3136B4E8-E4A7-4799-83D8-FD4052B65870}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:D20">
     <sortCondition ref="D1:D20"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="2" xr3:uid="{0958A159-E46C-425D-9203-5DD0F1886FD8}" name="TIPO DE MEDIDA" dataDxfId="24"/>
-    <tableColumn id="1" xr3:uid="{E1A683EB-EE64-45BC-9626-90EF28F9D8EC}" name="UNIDADES" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{79D4A729-AFF7-45E8-B9A1-FF1356E622DD}" name="TIPO DE MEDIDA CON EJEMPLO" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{BC6A7262-7D1D-4DEF-B12A-AA80E287FA5C}" name="ORDENAR" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{0958A159-E46C-425D-9203-5DD0F1886FD8}" name="TIPO DE MEDIDA" dataDxfId="39"/>
+    <tableColumn id="1" xr3:uid="{E1A683EB-EE64-45BC-9626-90EF28F9D8EC}" name="UNIDADES" dataDxfId="38"/>
+    <tableColumn id="4" xr3:uid="{79D4A729-AFF7-45E8-B9A1-FF1356E622DD}" name="TIPO DE MEDIDA CON EJEMPLO" dataDxfId="37"/>
+    <tableColumn id="5" xr3:uid="{BC6A7262-7D1D-4DEF-B12A-AA80E287FA5C}" name="ORDENAR" dataDxfId="36"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{04BC01B3-6066-44E3-9DF1-3746F2802D86}" name="MaestroMateriales" displayName="MaestroMateriales" ref="A1:D9" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
-  <autoFilter ref="A1:D9" xr:uid="{04BC01B3-6066-44E3-9DF1-3746F2802D86}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{1B2EB763-6053-4247-A4D7-F9836FFA73EA}" name="MATERIALES" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{3482D2CF-B368-4191-91D2-676ECD1A621F}" name="UNIDAD" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{C67EF1B5-A9B0-4212-A109-5F8EEDE51D15}" name="CANTIDAD" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{44E19CED-6E78-4420-9CAE-89CDDDAE05BF}" name="PRECIO" dataDxfId="15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{04BC01B3-6066-44E3-9DF1-3746F2802D86}" name="MaestroMateriales" displayName="MaestroMateriales" ref="A1:G11" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{1B2EB763-6053-4247-A4D7-F9836FFA73EA}" name="MATERIAL" dataDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{3482D2CF-B368-4191-91D2-676ECD1A621F}" name="TIPO DE MEDIDA" dataDxfId="32"/>
+    <tableColumn id="3" xr3:uid="{C67EF1B5-A9B0-4212-A109-5F8EEDE51D15}" name="MEDIDA DE COSTO" dataDxfId="31"/>
+    <tableColumn id="4" xr3:uid="{44E19CED-6E78-4420-9CAE-89CDDDAE05BF}" name="CANTIDAD COMPRADA" dataDxfId="30"/>
+    <tableColumn id="5" xr3:uid="{EE4D61C4-3D8B-494D-9A5E-C2E4D627CCCF}" name="MEDIDA DE USO" dataDxfId="29"/>
+    <tableColumn id="6" xr3:uid="{312A5358-58F4-4DBF-9258-110FFC9621BF}" name="CANTIDAD DE USO" dataDxfId="28"/>
+    <tableColumn id="7" xr3:uid="{BD82A5E5-D017-492B-8AD2-228E552C3F2D}" name="PRECIO" dataDxfId="27"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C1322BBA-254E-4DB5-AB50-49026C651892}" name="MaestroServicios" displayName="MaestroServicios" ref="A1:D4" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
-  <autoFilter ref="A1:D4" xr:uid="{10A5002C-808D-4387-A5C6-7E26A1F5B81A}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{B4545FC2-4B1B-41F4-BD0A-36DA34F4E563}" name="SERVICIOS" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{EF5740F7-4F1C-46C8-8F26-5581F288F70A}" name="UNIDAD" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{4FB5D3A5-8092-4B21-BE97-CB95AE71D9C5}" name="CANTIDAD" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{3FA48EF2-D7E0-4171-8E29-CA7337F26497}" name="PRECIO" dataDxfId="9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C1322BBA-254E-4DB5-AB50-49026C651892}" name="MaestroServicios" displayName="MaestroServicios" ref="A1:G5" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{B4545FC2-4B1B-41F4-BD0A-36DA34F4E563}" name="SERVICIO" dataDxfId="24"/>
+    <tableColumn id="5" xr3:uid="{848885E0-3C0E-4EFE-885A-9E6B3332F0D5}" name="TIPO DE MEDIDA" dataDxfId="23"/>
+    <tableColumn id="6" xr3:uid="{1AF22CFC-1EB5-4ABF-842F-FFAEF84785D8}" name="MEDIDA DE COSTO" dataDxfId="22"/>
+    <tableColumn id="9" xr3:uid="{6F716731-9558-4D76-A50C-AB4BCE128D3A}" name="CANTIDAD COMPRADA" dataDxfId="21"/>
+    <tableColumn id="8" xr3:uid="{F542FE7D-24FB-4ED9-8E4D-EB016D364745}" name="MEDIDA DE USO" dataDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{4298E081-E2D7-4CF5-87CE-F7FB1C504E6F}" name="CANTIDAD DE USO" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{EF5740F7-4F1C-46C8-8F26-5581F288F70A}" name="PRECIO" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6269,23 +6998,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2BF1C80-C889-453E-8C32-F49AB752F0EC}">
   <sheetPr codeName="Hoja3"/>
-  <dimension ref="B1:M17"/>
+  <dimension ref="B1:M33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.21875" customWidth="1"/>
     <col min="2" max="2" width="39.88671875" customWidth="1"/>
-    <col min="3" max="3" width="4.21875" customWidth="1"/>
+    <col min="3" max="3" width="4.33203125" customWidth="1"/>
     <col min="4" max="4" width="22.77734375" customWidth="1"/>
     <col min="5" max="5" width="17.77734375" customWidth="1"/>
     <col min="6" max="6" width="3.33203125" customWidth="1"/>
     <col min="7" max="7" width="16.88671875" customWidth="1"/>
     <col min="8" max="8" width="16.21875" customWidth="1"/>
-    <col min="9" max="9" width="7.44140625" customWidth="1"/>
+    <col min="9" max="9" width="3.44140625" customWidth="1"/>
     <col min="10" max="10" width="23.6640625" customWidth="1"/>
     <col min="11" max="11" width="15.88671875" customWidth="1"/>
     <col min="12" max="12" width="3" customWidth="1"/>
@@ -6302,46 +7031,46 @@
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="H3" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="G3" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="H3" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="J3" s="20" t="s">
-        <v>36</v>
-      </c>
       <c r="K3" s="20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M3" s="15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="2:13" ht="19.2" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B4" s="13" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="25" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E4" s="22">
         <v>0.2</v>
       </c>
       <c r="G4" s="25" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H4" s="22">
         <v>0.5</v>
       </c>
       <c r="J4" s="25" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="K4" s="22">
         <v>0.89</v>
@@ -6353,13 +7082,13 @@
     </row>
     <row r="5" spans="2:13" ht="17.399999999999999" x14ac:dyDescent="0.45">
       <c r="D5" s="25" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E5" s="22">
         <v>0.113</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="H5" s="22">
         <v>8.8999999999999996E-2</v>
@@ -6369,7 +7098,7 @@
     </row>
     <row r="6" spans="2:13" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B6" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D6" s="25"/>
       <c r="E6" s="22"/>
@@ -6378,13 +7107,17 @@
       <c r="J6" s="25"/>
       <c r="K6" s="22"/>
       <c r="M6" s="15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="2:13" ht="19.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B7" s="13" t="s">
-        <v>63</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="D7" s="25"/>
+      <c r="E7" s="22"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="22"/>
       <c r="J7" s="25"/>
       <c r="K7" s="22"/>
       <c r="M7" s="17">
@@ -6401,7 +7134,7 @@
     </row>
     <row r="9" spans="2:13" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B9" s="10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E9" s="22"/>
       <c r="G9" s="25"/>
@@ -6409,7 +7142,7 @@
       <c r="J9" s="21"/>
       <c r="K9" s="22"/>
       <c r="M9" s="15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="2:13" ht="19.2" thickBot="1" x14ac:dyDescent="0.5">
@@ -6440,12 +7173,12 @@
       <c r="J12" s="21"/>
       <c r="K12" s="22"/>
       <c r="M12" s="15" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="2:13" ht="19.2" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B13" s="18" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E13" s="22"/>
       <c r="G13" s="21"/>
@@ -6471,26 +7204,26 @@
       <c r="J15" s="21"/>
       <c r="K15" s="22"/>
       <c r="M15" s="15" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="2:13" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D16" s="21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E16" s="22">
         <f>SUBTOTAL(109,TablaF_Materiales[COSTO($)])</f>
         <v>0.313</v>
       </c>
       <c r="G16" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H16" s="24">
         <f>SUBTOTAL(109,TablaF_Servicios[COSTO($)])</f>
         <v>0.58899999999999997</v>
       </c>
       <c r="J16" s="21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K16" s="22">
         <f>SUBTOTAL(109,TablaF_ManoDeObra[COSTO($)])</f>
@@ -6501,31 +7234,76 @@
         <v>2.7238399999999996</v>
       </c>
     </row>
-    <row r="17" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:11" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B26" s="28"/>
+      <c r="D26" s="7"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B27" s="28"/>
+      <c r="D27" s="7"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B28" s="28"/>
+      <c r="D28" s="7"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B29" s="28"/>
+      <c r="D29" s="7"/>
+    </row>
+    <row r="30" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="31" spans="2:11" ht="18.600000000000001" x14ac:dyDescent="0.3">
+      <c r="J31" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="K31" s="30">
+        <f>$E$16</f>
+        <v>0.313</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" ht="18.600000000000001" x14ac:dyDescent="0.3">
+      <c r="J32" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="K32" s="32">
+        <f>$H$16</f>
+        <v>0.58899999999999997</v>
+      </c>
+    </row>
+    <row r="33" spans="10:11" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J33" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="K33" s="34">
+        <f>$K$16</f>
+        <v>0.89</v>
+      </c>
+    </row>
   </sheetData>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J14 J4 J5 J6 J7 J8 J9 J10 J11 J12 J13 J15" xr:uid="{6BFFB66B-5CD5-4BFF-915D-E44629AA4C58}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J12 J13 J14 J4 J5 J6 J7 J8 J9 J10 J11 J15" xr:uid="{6BFFB66B-5CD5-4BFF-915D-E44629AA4C58}">
       <formula1>"PETRA,ROMINA"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13" xr:uid="{FE160879-744E-4998-B202-98C00ECD59A6}">
-      <formula1>"COLLAR DE PERLAS,PULSERA MINIMALISTA,PULSERA OVALADA,ZARCILLOS SOLITARIO"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D12 D13 D14 D4 D5 D6 D7 D8 D9 D10 D11 D15" xr:uid="{E238C658-33CE-4049-AA95-0F8D79C7DB36}">
+      <formula1>"ALAMBRE,BOLSA,BROCHE,CRISTALES,CUERO,PERLAS,PIEDRAS CUARZO,PIEDRAS ROJAS,TAPAS,TARJETA"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D13 D14 D4 D5 D6 D7 D8 D9 D10 D11 D12 D15" xr:uid="{CE38D41E-B9B0-4953-8E4E-EA5CBE706127}">
-      <formula1>"ALAMBRE,BOLSA,BROCHE,PERLAS,PIEDRAS CUARZO,PIEDRAS ROJAS,TAPAS,TARJETA"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G12 G13 G14 G4 G5 G6 G7 G8 G9 G10 G11 G15" xr:uid="{B282A496-C1C8-48FB-A54C-A2D4C00BAF89}">
+      <formula1>"CONTADOR,GASOLINA,INTERNET,TELÉFONO"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G13 G14 G4 G5 G6 G7 G8 G9 G10 G11 G12 G15" xr:uid="{284417E8-7A56-4D7D-8015-715308A404BB}">
-      <formula1>"GASOLINA,INTERNET,TELÉFONO"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13" xr:uid="{7C8490A9-83A8-4598-A14F-2211E21EE3E2}">
+      <formula1>"COLLAR DE PERLAS,PULSERA DE HOMBRE,PULSERA MINIMALISTA,PULSERA OVALADA,PULSERA ROMI,ZARCILLOS SOLITARIO"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7" xr:uid="{1BE9C2C0-5DCF-4593-840B-803591687164}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7" xr:uid="{F8938373-3504-4EEB-889F-FDFF3611B526}">
       <formula1>"COLLARES,PULSERAS,ZARCILLOS"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="D4" display="PIEDRAS CUARZO" xr:uid="{B12112B6-F651-4A50-8F41-C065D0D6586A}"/>
-    <hyperlink ref="D5" display="ALAMBRE" xr:uid="{0D44F304-1E36-4332-8D99-F8378A12BA8B}"/>
-    <hyperlink ref="G4" display="INTERNET" xr:uid="{C1953F01-69B9-4E72-BC88-F8D516AA80A7}"/>
-    <hyperlink ref="G5" display="GASOLINA" xr:uid="{5ECEDEB4-A9AD-43EA-ACFB-AC15A2FBC5C6}"/>
-    <hyperlink ref="J4" display="ROMINA" xr:uid="{3D9E5889-A581-4C1A-AFFE-13C7E3CC1A14}"/>
+    <hyperlink ref="D4" display="PIEDRAS CUARZO" xr:uid="{ACE0BB60-3BDA-41FD-88C1-34ADE05C4A0F}"/>
+    <hyperlink ref="D5" display="ALAMBRE" xr:uid="{E75FC34B-A39C-4465-898E-E7C164F96BCF}"/>
+    <hyperlink ref="G4" display="INTERNET" xr:uid="{06CB8A20-7E69-4094-AE47-64726598EBA4}"/>
+    <hyperlink ref="G5" display="GASOLINA" xr:uid="{ABCD6D4E-A1D6-42B5-8A71-64E14A02C880}"/>
+    <hyperlink ref="J4" display="ROMINA" xr:uid="{3EE39FB5-0225-4C42-BAD3-5F526AA0F034}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6541,117 +7319,51 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E33D42D1-6E74-483D-95E7-FFB8B9FBBBFF}">
   <sheetPr codeName="Hoja7"/>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="88.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="189.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>424</v>
-      </c>
-      <c r="B5" t="s">
-        <v>115</v>
-      </c>
-      <c r="C5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>424</v>
-      </c>
-      <c r="B6" t="s">
-        <v>115</v>
-      </c>
-      <c r="C6" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>424</v>
-      </c>
-      <c r="B7" t="s">
-        <v>115</v>
-      </c>
-      <c r="C7" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>424</v>
-      </c>
-      <c r="B8" t="s">
-        <v>115</v>
-      </c>
-      <c r="C8" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>424</v>
-      </c>
-      <c r="B9" t="s">
-        <v>115</v>
-      </c>
-      <c r="C9" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>1004</v>
-      </c>
-      <c r="B10" t="s">
-        <v>117</v>
-      </c>
-      <c r="C10" t="s">
-        <v>116</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -6691,7 +7403,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3537251B-51E5-4BA7-977C-E8C4E979EE8A}">
   <sheetPr codeName="Hoja5"/>
-  <dimension ref="A1:V27"/>
+  <dimension ref="A1:V46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
@@ -6739,13 +7451,13 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>8</v>
@@ -6757,13 +7469,13 @@
         <v>6</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="N1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="O1" t="s">
         <v>13</v>
@@ -6775,13 +7487,13 @@
         <v>10</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="T1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="U1" t="s">
         <v>12</v>
@@ -6792,7 +7504,7 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
         <v>63</v>
@@ -6804,7 +7516,7 @@
         <v>56</v>
       </c>
       <c r="I2" s="3">
-        <v>0.3</v>
+        <v>1.25</v>
       </c>
       <c r="O2">
         <f>IFERROR(FactTable[[#This Row],[cantidadUsadaServicio]]*FactTable[[#This Row],[costoServicio$]]/FactTable[[#This Row],[unidadUsadaServicio]],0)</f>
@@ -6817,7 +7529,7 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
         <v>63</v>
@@ -6826,10 +7538,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I3" s="3">
-        <v>0.23</v>
+        <v>2</v>
       </c>
       <c r="O3">
         <f>IFERROR(FactTable[[#This Row],[cantidadUsadaServicio]]*FactTable[[#This Row],[costoServicio$]]/FactTable[[#This Row],[unidadUsadaServicio]],0)</f>
@@ -6842,23 +7554,23 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B4" t="s">
         <v>63</v>
       </c>
       <c r="C4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" t="s">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="I4" s="3">
-        <v>0.3</v>
+        <f>IFERROR(FactTable[[#This Row],[cantidadUsadaMaterial]]*FactTable[[#This Row],[costoMaterial$]]/FactTable[[#This Row],[unidadUsadaMaterial]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
       </c>
       <c r="O4">
-        <f>IFERROR(FactTable[[#This Row],[cantidadUsadaServicio]]*FactTable[[#This Row],[costoServicio$]]/FactTable[[#This Row],[unidadUsadaServicio]],0)</f>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="U4" s="3">
         <f>IFERROR(FactTable[[#This Row],[cantidadUsadaManoObra]]*FactTable[[#This Row],[costoManoObra$]]/FactTable[[#This Row],[unidadUsadaManoObra]],0)</f>
@@ -6867,7 +7579,7 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B5" t="s">
         <v>63</v>
@@ -6880,7 +7592,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="O5">
         <v>0.2</v>
@@ -6892,7 +7604,7 @@
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B6" t="s">
         <v>63</v>
@@ -6909,15 +7621,15 @@
         <v>0</v>
       </c>
       <c r="P6" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="U6" s="3">
-        <v>0.8</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B7" t="s">
         <v>63</v>
@@ -6938,24 +7650,24 @@
         <v>0</v>
       </c>
       <c r="V7">
-        <v>0.51</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" t="s">
         <v>59</v>
       </c>
-      <c r="B8" t="s">
-        <v>67</v>
-      </c>
       <c r="C8" t="s">
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="I8" s="3">
-        <v>1.25</v>
+        <v>0.2</v>
       </c>
       <c r="O8">
         <f>IFERROR(FactTable[[#This Row],[cantidadUsadaServicio]]*FactTable[[#This Row],[costoServicio$]]/FactTable[[#This Row],[unidadUsadaServicio]],0)</f>
@@ -6968,19 +7680,19 @@
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" t="s">
         <v>59</v>
       </c>
-      <c r="B9" t="s">
-        <v>67</v>
-      </c>
       <c r="C9" t="s">
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="I9" s="3">
-        <v>2</v>
+        <v>0.113</v>
       </c>
       <c r="O9">
         <f>IFERROR(FactTable[[#This Row],[cantidadUsadaServicio]]*FactTable[[#This Row],[costoServicio$]]/FactTable[[#This Row],[unidadUsadaServicio]],0)</f>
@@ -6993,10 +7705,10 @@
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" t="s">
         <v>59</v>
-      </c>
-      <c r="B10" t="s">
-        <v>67</v>
       </c>
       <c r="C10" t="s">
         <v>1</v>
@@ -7006,10 +7718,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="O10">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="U10" s="3">
         <f>IFERROR(FactTable[[#This Row],[cantidadUsadaManoObra]]*FactTable[[#This Row],[costoManoObra$]]/FactTable[[#This Row],[unidadUsadaManoObra]],0)</f>
@@ -7018,10 +7730,10 @@
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" t="s">
         <v>59</v>
-      </c>
-      <c r="B11" t="s">
-        <v>67</v>
       </c>
       <c r="C11" t="s">
         <v>1</v>
@@ -7031,10 +7743,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="O11">
-        <v>0.2</v>
+        <v>8.8999999999999996E-2</v>
       </c>
       <c r="U11" s="3">
         <f>IFERROR(FactTable[[#This Row],[cantidadUsadaManoObra]]*FactTable[[#This Row],[costoManoObra$]]/FactTable[[#This Row],[unidadUsadaManoObra]],0)</f>
@@ -7043,10 +7755,10 @@
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" t="s">
         <v>59</v>
-      </c>
-      <c r="B12" t="s">
-        <v>67</v>
       </c>
       <c r="C12" t="s">
         <v>2</v>
@@ -7060,18 +7772,18 @@
         <v>0</v>
       </c>
       <c r="P12" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="U12" s="3">
-        <v>0.37</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" t="s">
         <v>59</v>
-      </c>
-      <c r="B13" t="s">
-        <v>67</v>
       </c>
       <c r="C13" t="s">
         <v>15</v>
@@ -7089,24 +7801,24 @@
         <v>0</v>
       </c>
       <c r="V13">
-        <v>0.6</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B14" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="C14" t="s">
         <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="I14" s="3">
-        <v>0.04</v>
+        <v>0.113</v>
       </c>
       <c r="O14">
         <f>IFERROR(FactTable[[#This Row],[cantidadUsadaServicio]]*FactTable[[#This Row],[costoServicio$]]/FactTable[[#This Row],[unidadUsadaServicio]],0)</f>
@@ -7119,19 +7831,19 @@
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B15" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="C15" t="s">
         <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="I15" s="3">
-        <v>0.2</v>
+        <v>0.23</v>
       </c>
       <c r="O15">
         <f>IFERROR(FactTable[[#This Row],[cantidadUsadaServicio]]*FactTable[[#This Row],[costoServicio$]]/FactTable[[#This Row],[unidadUsadaServicio]],0)</f>
@@ -7144,19 +7856,19 @@
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B16" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="C16" t="s">
         <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="I16" s="3">
-        <v>0.01</v>
+        <v>0.3</v>
       </c>
       <c r="O16">
         <f>IFERROR(FactTable[[#This Row],[cantidadUsadaServicio]]*FactTable[[#This Row],[costoServicio$]]/FactTable[[#This Row],[unidadUsadaServicio]],0)</f>
@@ -7169,10 +7881,10 @@
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B17" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="C17" t="s">
         <v>1</v>
@@ -7182,10 +7894,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="O17">
-        <v>0.03</v>
+        <v>5.25</v>
       </c>
       <c r="U17" s="3">
         <f>IFERROR(FactTable[[#This Row],[cantidadUsadaManoObra]]*FactTable[[#This Row],[costoManoObra$]]/FactTable[[#This Row],[unidadUsadaManoObra]],0)</f>
@@ -7194,10 +7906,10 @@
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B18" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="C18" t="s">
         <v>1</v>
@@ -7207,10 +7919,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="O18">
-        <v>0.08</v>
+        <v>2E-3</v>
       </c>
       <c r="U18" s="3">
         <f>IFERROR(FactTable[[#This Row],[cantidadUsadaManoObra]]*FactTable[[#This Row],[costoManoObra$]]/FactTable[[#This Row],[unidadUsadaManoObra]],0)</f>
@@ -7219,10 +7931,10 @@
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B19" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="C19" t="s">
         <v>1</v>
@@ -7232,10 +7944,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>61</v>
-      </c>
-      <c r="O19">
-        <v>0.02</v>
+        <v>57</v>
       </c>
       <c r="U19" s="3">
         <f>IFERROR(FactTable[[#This Row],[cantidadUsadaManoObra]]*FactTable[[#This Row],[costoManoObra$]]/FactTable[[#This Row],[unidadUsadaManoObra]],0)</f>
@@ -7244,10 +7953,10 @@
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B20" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="C20" t="s">
         <v>2</v>
@@ -7261,21 +7970,21 @@
         <v>0</v>
       </c>
       <c r="P20" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="U20" s="3">
-        <v>0.37</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B21" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="C21" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="I21" s="3">
         <f>IFERROR(FactTable[[#This Row],[cantidadUsadaMaterial]]*FactTable[[#This Row],[costoMaterial$]]/FactTable[[#This Row],[unidadUsadaMaterial]],0)</f>
@@ -7285,29 +7994,26 @@
         <f>IFERROR(FactTable[[#This Row],[cantidadUsadaServicio]]*FactTable[[#This Row],[costoServicio$]]/FactTable[[#This Row],[unidadUsadaServicio]],0)</f>
         <v>0</v>
       </c>
+      <c r="P21" t="s">
+        <v>90</v>
+      </c>
       <c r="U21" s="3">
-        <f>IFERROR(FactTable[[#This Row],[cantidadUsadaManoObra]]*FactTable[[#This Row],[costoManoObra$]]/FactTable[[#This Row],[unidadUsadaManoObra]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="V21">
-        <v>0.3</v>
+        <v>5.7140000000000004</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="B22" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C22" t="s">
-        <v>0</v>
-      </c>
-      <c r="D22" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="I22" s="3">
-        <v>0.2</v>
+        <f>IFERROR(FactTable[[#This Row],[cantidadUsadaMaterial]]*FactTable[[#This Row],[costoMaterial$]]/FactTable[[#This Row],[unidadUsadaMaterial]],0)</f>
+        <v>0</v>
       </c>
       <c r="O22">
         <f>IFERROR(FactTable[[#This Row],[cantidadUsadaServicio]]*FactTable[[#This Row],[costoServicio$]]/FactTable[[#This Row],[unidadUsadaServicio]],0)</f>
@@ -7317,22 +8023,25 @@
         <f>IFERROR(FactTable[[#This Row],[cantidadUsadaManoObra]]*FactTable[[#This Row],[costoManoObra$]]/FactTable[[#This Row],[unidadUsadaManoObra]],0)</f>
         <v>0</v>
       </c>
+      <c r="V22">
+        <v>0.51</v>
+      </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>65</v>
+        <v>116</v>
       </c>
       <c r="B23" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C23" t="s">
         <v>0</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="I23" s="3">
-        <v>0.113</v>
+        <v>0.13200000000000001</v>
       </c>
       <c r="O23">
         <f>IFERROR(FactTable[[#This Row],[cantidadUsadaServicio]]*FactTable[[#This Row],[costoServicio$]]/FactTable[[#This Row],[unidadUsadaServicio]],0)</f>
@@ -7345,23 +8054,23 @@
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>65</v>
+        <v>116</v>
       </c>
       <c r="B24" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C24" t="s">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D24" t="s">
+        <v>66</v>
       </c>
       <c r="I24" s="3">
-        <f>IFERROR(FactTable[[#This Row],[cantidadUsadaMaterial]]*FactTable[[#This Row],[costoMaterial$]]/FactTable[[#This Row],[unidadUsadaMaterial]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="J24" t="s">
-        <v>66</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="O24">
-        <v>0.5</v>
+        <f>IFERROR(FactTable[[#This Row],[cantidadUsadaServicio]]*FactTable[[#This Row],[costoServicio$]]/FactTable[[#This Row],[unidadUsadaServicio]],0)</f>
+        <v>0</v>
       </c>
       <c r="U24" s="3">
         <f>IFERROR(FactTable[[#This Row],[cantidadUsadaManoObra]]*FactTable[[#This Row],[costoManoObra$]]/FactTable[[#This Row],[unidadUsadaManoObra]],0)</f>
@@ -7370,23 +8079,23 @@
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>65</v>
+        <v>116</v>
       </c>
       <c r="B25" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C25" t="s">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D25" t="s">
+        <v>49</v>
       </c>
       <c r="I25" s="3">
-        <f>IFERROR(FactTable[[#This Row],[cantidadUsadaMaterial]]*FactTable[[#This Row],[costoMaterial$]]/FactTable[[#This Row],[unidadUsadaMaterial]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="J25" t="s">
-        <v>61</v>
+        <v>0.08</v>
       </c>
       <c r="O25">
-        <v>8.8999999999999996E-2</v>
+        <f>IFERROR(FactTable[[#This Row],[cantidadUsadaServicio]]*FactTable[[#This Row],[costoServicio$]]/FactTable[[#This Row],[unidadUsadaServicio]],0)</f>
+        <v>0</v>
       </c>
       <c r="U25" s="3">
         <f>IFERROR(FactTable[[#This Row],[cantidadUsadaManoObra]]*FactTable[[#This Row],[costoManoObra$]]/FactTable[[#This Row],[unidadUsadaManoObra]],0)</f>
@@ -7395,38 +8104,38 @@
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>65</v>
+        <v>116</v>
       </c>
       <c r="B26" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C26" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" s="3">
         <f>IFERROR(FactTable[[#This Row],[cantidadUsadaMaterial]]*FactTable[[#This Row],[costoMaterial$]]/FactTable[[#This Row],[unidadUsadaMaterial]],0)</f>
         <v>0</v>
       </c>
+      <c r="J26" t="s">
+        <v>60</v>
+      </c>
       <c r="O26">
-        <f>IFERROR(FactTable[[#This Row],[cantidadUsadaServicio]]*FactTable[[#This Row],[costoServicio$]]/FactTable[[#This Row],[unidadUsadaServicio]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="P26" t="s">
-        <v>62</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="U26" s="3">
-        <v>0.89</v>
+        <f>IFERROR(FactTable[[#This Row],[cantidadUsadaManoObra]]*FactTable[[#This Row],[costoManoObra$]]/FactTable[[#This Row],[unidadUsadaManoObra]],0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>65</v>
+        <v>116</v>
       </c>
       <c r="B27" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C27" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="I27" s="3">
         <f>IFERROR(FactTable[[#This Row],[cantidadUsadaMaterial]]*FactTable[[#This Row],[costoMaterial$]]/FactTable[[#This Row],[unidadUsadaMaterial]],0)</f>
@@ -7436,12 +8145,489 @@
         <f>IFERROR(FactTable[[#This Row],[cantidadUsadaServicio]]*FactTable[[#This Row],[costoServicio$]]/FactTable[[#This Row],[unidadUsadaServicio]],0)</f>
         <v>0</v>
       </c>
+      <c r="P27" t="s">
+        <v>58</v>
+      </c>
       <c r="U27" s="3">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>116</v>
+      </c>
+      <c r="B28" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" t="s">
+        <v>15</v>
+      </c>
+      <c r="I28" s="3">
+        <f>IFERROR(FactTable[[#This Row],[cantidadUsadaMaterial]]*FactTable[[#This Row],[costoMaterial$]]/FactTable[[#This Row],[unidadUsadaMaterial]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <f>IFERROR(FactTable[[#This Row],[cantidadUsadaServicio]]*FactTable[[#This Row],[costoServicio$]]/FactTable[[#This Row],[unidadUsadaServicio]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
         <f>IFERROR(FactTable[[#This Row],[cantidadUsadaManoObra]]*FactTable[[#This Row],[costoManoObra$]]/FactTable[[#This Row],[unidadUsadaManoObra]],0)</f>
         <v>0</v>
       </c>
-      <c r="V27">
-        <v>0.52</v>
+      <c r="V28">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29" t="s">
+        <v>52</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="O29">
+        <f>IFERROR(FactTable[[#This Row],[cantidadUsadaServicio]]*FactTable[[#This Row],[costoServicio$]]/FactTable[[#This Row],[unidadUsadaServicio]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
+        <f>IFERROR(FactTable[[#This Row],[cantidadUsadaManoObra]]*FactTable[[#This Row],[costoManoObra$]]/FactTable[[#This Row],[unidadUsadaManoObra]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D30" t="s">
+        <v>64</v>
+      </c>
+      <c r="I30" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="O30">
+        <f>IFERROR(FactTable[[#This Row],[cantidadUsadaServicio]]*FactTable[[#This Row],[costoServicio$]]/FactTable[[#This Row],[unidadUsadaServicio]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <f>IFERROR(FactTable[[#This Row],[cantidadUsadaManoObra]]*FactTable[[#This Row],[costoManoObra$]]/FactTable[[#This Row],[unidadUsadaManoObra]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" t="s">
+        <v>67</v>
+      </c>
+      <c r="C31" t="s">
+        <v>0</v>
+      </c>
+      <c r="D31" t="s">
+        <v>66</v>
+      </c>
+      <c r="I31" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="O31">
+        <f>IFERROR(FactTable[[#This Row],[cantidadUsadaServicio]]*FactTable[[#This Row],[costoServicio$]]/FactTable[[#This Row],[unidadUsadaServicio]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <f>IFERROR(FactTable[[#This Row],[cantidadUsadaManoObra]]*FactTable[[#This Row],[costoManoObra$]]/FactTable[[#This Row],[unidadUsadaManoObra]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1</v>
+      </c>
+      <c r="I32" s="3">
+        <f>IFERROR(FactTable[[#This Row],[cantidadUsadaMaterial]]*FactTable[[#This Row],[costoMaterial$]]/FactTable[[#This Row],[unidadUsadaMaterial]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="J32" t="s">
+        <v>62</v>
+      </c>
+      <c r="O32">
+        <v>0.03</v>
+      </c>
+      <c r="U32" s="3">
+        <f>IFERROR(FactTable[[#This Row],[cantidadUsadaManoObra]]*FactTable[[#This Row],[costoManoObra$]]/FactTable[[#This Row],[unidadUsadaManoObra]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1</v>
+      </c>
+      <c r="I33" s="3">
+        <f>IFERROR(FactTable[[#This Row],[cantidadUsadaMaterial]]*FactTable[[#This Row],[costoMaterial$]]/FactTable[[#This Row],[unidadUsadaMaterial]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="J33" t="s">
+        <v>60</v>
+      </c>
+      <c r="O33">
+        <v>0.08</v>
+      </c>
+      <c r="U33" s="3">
+        <f>IFERROR(FactTable[[#This Row],[cantidadUsadaManoObra]]*FactTable[[#This Row],[costoManoObra$]]/FactTable[[#This Row],[unidadUsadaManoObra]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1</v>
+      </c>
+      <c r="I34" s="3">
+        <f>IFERROR(FactTable[[#This Row],[cantidadUsadaMaterial]]*FactTable[[#This Row],[costoMaterial$]]/FactTable[[#This Row],[unidadUsadaMaterial]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="J34" t="s">
+        <v>57</v>
+      </c>
+      <c r="O34">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="U34" s="3">
+        <f>IFERROR(FactTable[[#This Row],[cantidadUsadaManoObra]]*FactTable[[#This Row],[costoManoObra$]]/FactTable[[#This Row],[unidadUsadaManoObra]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" t="s">
+        <v>67</v>
+      </c>
+      <c r="C35" t="s">
+        <v>2</v>
+      </c>
+      <c r="I35" s="3">
+        <f>IFERROR(FactTable[[#This Row],[cantidadUsadaMaterial]]*FactTable[[#This Row],[costoMaterial$]]/FactTable[[#This Row],[unidadUsadaMaterial]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <f>IFERROR(FactTable[[#This Row],[cantidadUsadaServicio]]*FactTable[[#This Row],[costoServicio$]]/FactTable[[#This Row],[unidadUsadaServicio]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="P35" t="s">
+        <v>58</v>
+      </c>
+      <c r="U35" s="3">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" t="s">
+        <v>67</v>
+      </c>
+      <c r="C36" t="s">
+        <v>15</v>
+      </c>
+      <c r="I36" s="3">
+        <f>IFERROR(FactTable[[#This Row],[cantidadUsadaMaterial]]*FactTable[[#This Row],[costoMaterial$]]/FactTable[[#This Row],[unidadUsadaMaterial]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <f>IFERROR(FactTable[[#This Row],[cantidadUsadaServicio]]*FactTable[[#This Row],[costoServicio$]]/FactTable[[#This Row],[unidadUsadaServicio]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="U36" s="3">
+        <f>IFERROR(FactTable[[#This Row],[cantidadUsadaManoObra]]*FactTable[[#This Row],[costoManoObra$]]/FactTable[[#This Row],[unidadUsadaManoObra]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="V36">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>117</v>
+      </c>
+      <c r="B37" t="s">
+        <v>59</v>
+      </c>
+      <c r="C37" t="s">
+        <v>0</v>
+      </c>
+      <c r="D37" t="s">
+        <v>52</v>
+      </c>
+      <c r="I37" s="3">
+        <v>0.111</v>
+      </c>
+      <c r="O37" s="27">
+        <f>IFERROR(FactTable[[#This Row],[cantidadUsadaServicio]]*FactTable[[#This Row],[costoServicio$]]/FactTable[[#This Row],[unidadUsadaServicio]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="U37" s="3">
+        <f>IFERROR(FactTable[[#This Row],[cantidadUsadaManoObra]]*FactTable[[#This Row],[costoManoObra$]]/FactTable[[#This Row],[unidadUsadaManoObra]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>117</v>
+      </c>
+      <c r="B38" t="s">
+        <v>59</v>
+      </c>
+      <c r="C38" t="s">
+        <v>0</v>
+      </c>
+      <c r="D38" t="s">
+        <v>118</v>
+      </c>
+      <c r="I38" s="3">
+        <v>0.157</v>
+      </c>
+      <c r="O38" s="27">
+        <f>IFERROR(FactTable[[#This Row],[cantidadUsadaServicio]]*FactTable[[#This Row],[costoServicio$]]/FactTable[[#This Row],[unidadUsadaServicio]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="U38" s="3">
+        <f>IFERROR(FactTable[[#This Row],[cantidadUsadaManoObra]]*FactTable[[#This Row],[costoManoObra$]]/FactTable[[#This Row],[unidadUsadaManoObra]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>117</v>
+      </c>
+      <c r="B39" t="s">
+        <v>59</v>
+      </c>
+      <c r="C39" t="s">
+        <v>0</v>
+      </c>
+      <c r="D39" t="s">
+        <v>66</v>
+      </c>
+      <c r="I39" s="3">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="O39" s="27">
+        <f>IFERROR(FactTable[[#This Row],[cantidadUsadaServicio]]*FactTable[[#This Row],[costoServicio$]]/FactTable[[#This Row],[unidadUsadaServicio]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="U39" s="3">
+        <f>IFERROR(FactTable[[#This Row],[cantidadUsadaManoObra]]*FactTable[[#This Row],[costoManoObra$]]/FactTable[[#This Row],[unidadUsadaManoObra]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>117</v>
+      </c>
+      <c r="B40" t="s">
+        <v>59</v>
+      </c>
+      <c r="C40" t="s">
+        <v>0</v>
+      </c>
+      <c r="D40" t="s">
+        <v>49</v>
+      </c>
+      <c r="I40" s="3">
+        <v>0.06</v>
+      </c>
+      <c r="O40" s="27">
+        <f>IFERROR(FactTable[[#This Row],[cantidadUsadaServicio]]*FactTable[[#This Row],[costoServicio$]]/FactTable[[#This Row],[unidadUsadaServicio]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="U40" s="3">
+        <f>IFERROR(FactTable[[#This Row],[cantidadUsadaManoObra]]*FactTable[[#This Row],[costoManoObra$]]/FactTable[[#This Row],[unidadUsadaManoObra]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>117</v>
+      </c>
+      <c r="B41" t="s">
+        <v>59</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1</v>
+      </c>
+      <c r="I41" s="3">
+        <f>IFERROR(FactTable[[#This Row],[cantidadUsadaMaterial]]*FactTable[[#This Row],[costoMaterial$]]/FactTable[[#This Row],[unidadUsadaMaterial]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="J41" t="s">
+        <v>119</v>
+      </c>
+      <c r="O41" s="27">
+        <v>0.501</v>
+      </c>
+      <c r="U41" s="3">
+        <f>IFERROR(FactTable[[#This Row],[cantidadUsadaManoObra]]*FactTable[[#This Row],[costoManoObra$]]/FactTable[[#This Row],[unidadUsadaManoObra]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>117</v>
+      </c>
+      <c r="B42" t="s">
+        <v>59</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1</v>
+      </c>
+      <c r="I42" s="3">
+        <f>IFERROR(FactTable[[#This Row],[cantidadUsadaMaterial]]*FactTable[[#This Row],[costoMaterial$]]/FactTable[[#This Row],[unidadUsadaMaterial]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="J42" t="s">
+        <v>57</v>
+      </c>
+      <c r="O42" s="27">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="U42" s="3">
+        <f>IFERROR(FactTable[[#This Row],[cantidadUsadaManoObra]]*FactTable[[#This Row],[costoManoObra$]]/FactTable[[#This Row],[unidadUsadaManoObra]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>117</v>
+      </c>
+      <c r="B43" t="s">
+        <v>59</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1</v>
+      </c>
+      <c r="I43" s="3">
+        <f>IFERROR(FactTable[[#This Row],[cantidadUsadaMaterial]]*FactTable[[#This Row],[costoMaterial$]]/FactTable[[#This Row],[unidadUsadaMaterial]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="J43" t="s">
+        <v>62</v>
+      </c>
+      <c r="O43" s="27">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="U43" s="3">
+        <f>IFERROR(FactTable[[#This Row],[cantidadUsadaManoObra]]*FactTable[[#This Row],[costoManoObra$]]/FactTable[[#This Row],[unidadUsadaManoObra]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>117</v>
+      </c>
+      <c r="B44" t="s">
+        <v>59</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1</v>
+      </c>
+      <c r="I44" s="3">
+        <f>IFERROR(FactTable[[#This Row],[cantidadUsadaMaterial]]*FactTable[[#This Row],[costoMaterial$]]/FactTable[[#This Row],[unidadUsadaMaterial]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="J44" t="s">
+        <v>60</v>
+      </c>
+      <c r="O44" s="27">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="U44" s="3">
+        <f>IFERROR(FactTable[[#This Row],[cantidadUsadaManoObra]]*FactTable[[#This Row],[costoManoObra$]]/FactTable[[#This Row],[unidadUsadaManoObra]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>117</v>
+      </c>
+      <c r="B45" t="s">
+        <v>59</v>
+      </c>
+      <c r="C45" t="s">
+        <v>2</v>
+      </c>
+      <c r="I45" s="3">
+        <f>IFERROR(FactTable[[#This Row],[cantidadUsadaMaterial]]*FactTable[[#This Row],[costoMaterial$]]/FactTable[[#This Row],[unidadUsadaMaterial]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="O45" s="27">
+        <f>IFERROR(FactTable[[#This Row],[cantidadUsadaServicio]]*FactTable[[#This Row],[costoServicio$]]/FactTable[[#This Row],[unidadUsadaServicio]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="P45" t="s">
+        <v>58</v>
+      </c>
+      <c r="U45" s="3">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>117</v>
+      </c>
+      <c r="B46" t="s">
+        <v>59</v>
+      </c>
+      <c r="C46" t="s">
+        <v>15</v>
+      </c>
+      <c r="I46" s="3">
+        <f>IFERROR(FactTable[[#This Row],[cantidadUsadaMaterial]]*FactTable[[#This Row],[costoMaterial$]]/FactTable[[#This Row],[unidadUsadaMaterial]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="O46" s="27">
+        <f>IFERROR(FactTable[[#This Row],[cantidadUsadaServicio]]*FactTable[[#This Row],[costoServicio$]]/FactTable[[#This Row],[unidadUsadaServicio]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="U46" s="3">
+        <f>IFERROR(FactTable[[#This Row],[cantidadUsadaManoObra]]*FactTable[[#This Row],[costoManoObra$]]/FactTable[[#This Row],[unidadUsadaManoObra]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="V46">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -7478,7 +8664,7 @@
         <v>27</v>
       </c>
       <c r="B1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -7517,12 +8703,13 @@
       <c r="B4" s="3">
         <v>0</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="27">
         <v>0</v>
       </c>
       <c r="D4" s="3">
         <v>0.89</v>
       </c>
+      <c r="E4" s="27"/>
       <c r="G4" t="s">
         <v>18</v>
       </c>
@@ -7546,13 +8733,13 @@
       <c r="B5" s="3">
         <v>0</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="27">
         <v>0</v>
       </c>
       <c r="D5" s="3">
         <v>0</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="27">
         <v>0.52</v>
       </c>
       <c r="G5" t="s">
@@ -7578,12 +8765,13 @@
       <c r="B6" s="3">
         <v>0.313</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="27">
         <v>0</v>
       </c>
       <c r="D6" s="3">
         <v>0</v>
       </c>
+      <c r="E6" s="27"/>
       <c r="G6" t="s">
         <v>20</v>
       </c>
@@ -7607,12 +8795,13 @@
       <c r="B7" s="3">
         <v>0</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="27">
         <v>0.58899999999999997</v>
       </c>
       <c r="D7" s="3">
         <v>0</v>
       </c>
+      <c r="E7" s="27"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
@@ -7646,7 +8835,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7659,27 +8848,27 @@
   <sheetData>
     <row r="1" spans="1:4" ht="18.600000000000001" x14ac:dyDescent="0.45">
       <c r="A1" s="14" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="18.600000000000001" x14ac:dyDescent="0.45">
       <c r="A2" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="14" t="s">
         <v>73</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>77</v>
       </c>
       <c r="D2" s="14">
         <v>1</v>
@@ -7687,13 +8876,13 @@
     </row>
     <row r="3" spans="1:4" ht="18.600000000000001" x14ac:dyDescent="0.45">
       <c r="A3" s="14" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D3" s="14">
         <v>1</v>
@@ -7701,13 +8890,13 @@
     </row>
     <row r="4" spans="1:4" ht="18.600000000000001" x14ac:dyDescent="0.45">
       <c r="A4" s="14" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D4" s="14">
         <v>1</v>
@@ -7715,13 +8904,13 @@
     </row>
     <row r="5" spans="1:4" ht="18.600000000000001" x14ac:dyDescent="0.45">
       <c r="A5" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" s="14" t="s">
         <v>73</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>77</v>
       </c>
       <c r="D5" s="14">
         <v>2</v>
@@ -7729,13 +8918,13 @@
     </row>
     <row r="6" spans="1:4" ht="18.600000000000001" x14ac:dyDescent="0.45">
       <c r="A6" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" s="14" t="s">
         <v>73</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>77</v>
       </c>
       <c r="D6" s="14">
         <v>3</v>
@@ -7743,13 +8932,13 @@
     </row>
     <row r="7" spans="1:4" ht="18.600000000000001" x14ac:dyDescent="0.45">
       <c r="A7" s="14" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D7" s="14">
         <v>2</v>
@@ -7757,13 +8946,13 @@
     </row>
     <row r="8" spans="1:4" ht="18.600000000000001" x14ac:dyDescent="0.45">
       <c r="A8" s="14" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D8" s="14">
         <v>2</v>
@@ -7771,13 +8960,13 @@
     </row>
     <row r="9" spans="1:4" ht="18.600000000000001" x14ac:dyDescent="0.45">
       <c r="A9" s="14" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D9" s="14">
         <v>5</v>
@@ -7785,13 +8974,13 @@
     </row>
     <row r="10" spans="1:4" ht="18.600000000000001" x14ac:dyDescent="0.45">
       <c r="A10" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="B10" s="14" t="s">
-        <v>80</v>
-      </c>
       <c r="C10" s="14" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D10" s="14">
         <v>4</v>
@@ -7799,13 +8988,13 @@
     </row>
     <row r="11" spans="1:4" ht="18.600000000000001" x14ac:dyDescent="0.45">
       <c r="A11" s="14" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D11" s="14">
         <v>6</v>
@@ -7813,13 +9002,13 @@
     </row>
     <row r="12" spans="1:4" ht="18.600000000000001" x14ac:dyDescent="0.45">
       <c r="A12" s="14" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D12" s="14">
         <v>7</v>
@@ -7827,13 +9016,13 @@
     </row>
     <row r="13" spans="1:4" ht="18.600000000000001" x14ac:dyDescent="0.45">
       <c r="A13" s="14" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D13" s="14">
         <v>3</v>
@@ -7841,13 +9030,13 @@
     </row>
     <row r="14" spans="1:4" ht="18.600000000000001" x14ac:dyDescent="0.45">
       <c r="A14" s="14" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B14" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" s="14" t="s">
         <v>84</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>88</v>
       </c>
       <c r="D14" s="14">
         <v>2</v>
@@ -7855,13 +9044,13 @@
     </row>
     <row r="15" spans="1:4" ht="18.600000000000001" x14ac:dyDescent="0.45">
       <c r="A15" s="14" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D15" s="14">
         <v>1</v>
@@ -7869,13 +9058,13 @@
     </row>
     <row r="16" spans="1:4" ht="18.600000000000001" x14ac:dyDescent="0.45">
       <c r="A16" s="14" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D16" s="14">
         <v>1</v>
@@ -7883,13 +9072,13 @@
     </row>
     <row r="17" spans="1:4" ht="18.600000000000001" x14ac:dyDescent="0.45">
       <c r="A17" s="14" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D17" s="14">
         <v>5</v>
@@ -7897,13 +9086,13 @@
     </row>
     <row r="18" spans="1:4" ht="18.600000000000001" x14ac:dyDescent="0.45">
       <c r="A18" s="14" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D18" s="14">
         <v>1</v>
@@ -7911,13 +9100,13 @@
     </row>
     <row r="19" spans="1:4" ht="18.600000000000001" x14ac:dyDescent="0.45">
       <c r="A19" s="14" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D19" s="14">
         <v>3</v>
@@ -7925,13 +9114,13 @@
     </row>
     <row r="20" spans="1:4" ht="18.600000000000001" x14ac:dyDescent="0.45">
       <c r="A20" s="14" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D20" s="14">
         <v>4</v>
@@ -7939,13 +9128,13 @@
     </row>
     <row r="21" spans="1:4" ht="18.600000000000001" x14ac:dyDescent="0.45">
       <c r="A21" s="14" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D21" s="14">
         <v>3</v>
@@ -7953,13 +9142,13 @@
     </row>
     <row r="22" spans="1:4" ht="18.600000000000001" x14ac:dyDescent="0.45">
       <c r="A22" s="14" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D22" s="14">
         <v>4</v>
@@ -7977,76 +9166,171 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7F7E957-4D55-48B5-B029-B59EB45EC0B4}">
   <sheetPr codeName="Hoja6"/>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="B1" sqref="B1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.600000000000001" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="23.77734375" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.44140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="11.5546875" style="14"/>
+    <col min="2" max="2" width="30.77734375" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.88671875" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.5546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.88671875" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="11.5546875" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="14" t="s">
         <v>31</v>
       </c>
       <c r="B1" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A2" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A3" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="14" t="s">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A4" s="14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A5" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" s="26">
+        <v>9</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F5" s="26">
+        <v>10</v>
+      </c>
+      <c r="G5" s="26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A6" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="B6" s="14" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A2" s="14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A3" s="14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A4" s="14" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A5" s="14" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A6" s="14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C6" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="26">
+        <v>100</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="26">
+        <v>1</v>
+      </c>
+      <c r="G6" s="26">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="14" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="14" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="14" t="s">
-        <v>70</v>
+        <v>66</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="26">
+        <v>100</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="26">
+        <v>1</v>
+      </c>
+      <c r="G9" s="26">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A10" s="14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A11" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="26">
+        <v>46</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="26">
+        <v>12</v>
+      </c>
+      <c r="G11" s="26">
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -8057,57 +9341,137 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D35508A-792B-4235-A23F-6B5271319979}">
   <sheetPr codeName="Hoja11"/>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.6640625" customWidth="1"/>
-    <col min="3" max="3" width="24.109375" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.600000000000001" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" ht="18.600000000000001" x14ac:dyDescent="0.45">
       <c r="A1" s="14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>49</v>
+        <v>111</v>
       </c>
       <c r="D1" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="18.600000000000001" x14ac:dyDescent="0.45">
+      <c r="A2" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="26">
+        <v>1</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="F2" s="26">
         <v>45</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="18.600000000000001" x14ac:dyDescent="0.45">
-      <c r="A2" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-    </row>
-    <row r="3" spans="1:4" ht="18.600000000000001" x14ac:dyDescent="0.45">
+      <c r="G2" s="26">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="18.600000000000001" x14ac:dyDescent="0.45">
       <c r="A3" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-    </row>
-    <row r="4" spans="1:4" ht="18.600000000000001" x14ac:dyDescent="0.45">
+        <v>60</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="26">
+        <v>1</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="F3" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="G3" s="26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="18.600000000000001" x14ac:dyDescent="0.45">
       <c r="A4" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
+        <v>62</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="26">
+        <v>1</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="F4" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="G4" s="26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="18.600000000000001" x14ac:dyDescent="0.45">
+      <c r="A5" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" s="26">
+        <v>100</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="F5" s="26">
+        <v>1.6699999570846558</v>
+      </c>
+      <c r="G5" s="26">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8120,49 +9484,91 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E673BA6E-E4FF-4C5D-AED7-937FE3270E94}">
   <sheetPr codeName="Hoja9"/>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="21.77734375" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.600000000000001" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" ht="18.600000000000001" x14ac:dyDescent="0.45">
       <c r="A1" s="14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>49</v>
+        <v>111</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="18.600000000000001" x14ac:dyDescent="0.45">
+        <v>113</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="18.600000000000001" x14ac:dyDescent="0.45">
       <c r="A2" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-    </row>
-    <row r="3" spans="1:4" ht="18.600000000000001" x14ac:dyDescent="0.45">
+        <v>58</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="26">
+        <v>1</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="F2" s="26">
+        <v>30</v>
+      </c>
+      <c r="G2" s="26">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="18.600000000000001" x14ac:dyDescent="0.45">
       <c r="A3" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
+        <v>90</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="26">
+        <v>1</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="F3" s="26">
+        <v>2</v>
+      </c>
+      <c r="G3" s="26">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8178,7 +9584,7 @@
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8188,22 +9594,22 @@
   <sheetData>
     <row r="1" spans="1:1" ht="18.600000000000001" x14ac:dyDescent="0.45">
       <c r="A1" s="14" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="18.600000000000001" x14ac:dyDescent="0.45">
       <c r="A2" s="14" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="18.600000000000001" x14ac:dyDescent="0.45">
       <c r="A3" s="14" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="18.600000000000001" x14ac:dyDescent="0.45">
       <c r="A4" s="14" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
